--- a/Docment/DDZ_Quotation.xlsx
+++ b/Docment/DDZ_Quotation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="9570"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>功能/模块内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库购买，搭建以及部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境购买，搭建以及部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人/费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>棋牌信息桌面接口接受器编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端UI展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库搭建以及部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境搭建以及部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +130,80 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,18 +211,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,317 +636,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="2" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17">
-        <f>SUM(D2:D16)</f>
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E2:E16)</f>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <f>SUM(E4:E20)</f>
+        <v>41</v>
+      </c>
+      <c r="F21" s="2">
+        <f>SUM(F4:F20)</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
